--- a/public/mgkpsy(suivi).xlsx
+++ b/public/mgkpsy(suivi).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Client</t>
   </si>
@@ -71,12 +71,6 @@
     <t>1970-01-01 12:18:00</t>
   </si>
   <si>
-    <t>1970-01-01 02:20:00</t>
-  </si>
-  <si>
-    <t>1970-01-01 14:20:00</t>
-  </si>
-  <si>
     <t>finaltestsimple</t>
   </si>
   <si>
@@ -90,21 +84,6 @@
   </si>
   <si>
     <t>1970-01-01 02:00:00</t>
-  </si>
-  <si>
-    <t>faire du sport</t>
-  </si>
-  <si>
-    <t>2021-12-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2021-12-03 00:00:00</t>
-  </si>
-  <si>
-    <t>1970-01-01 12:01:00</t>
-  </si>
-  <si>
-    <t>1970-01-01 13:20:00</t>
   </si>
 </sst>
 </file>
@@ -443,7 +422,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,142 +492,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
